--- a/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/OutputData/Nipah/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29082E6A-E81C-D849-BED5-81CF89CFF864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E75C1-8481-D945-850F-056AD191F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="21960" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>RefID</t>
   </si>
@@ -62,31 +62,7 @@
     <t>Direct Submission</t>
   </si>
   <si>
-    <t>Arankalle V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hepatitis, National Institute of Virology, 20-A, Dr. Ambedkar Road, Pune, Maharashtra 411001, India</t>
-  </si>
-  <si>
-    <t>FJ513081, FJ513080, FJ513079, FJ513078</t>
-  </si>
-  <si>
-    <t>Epstein J., Anthony S., Islam A., Kilpatrick A., Khan S., Sanchez M., Ross N., Smith I., Zambrana-torrelio C., Tao Y., Islam A., Quan P., Olival K., Khan M., Gurley E., Hossein M., Field H., Fielder M., Briese T., Rahman M., Broder C., Crameri G., Wang L., Luby S., Lipkin W., Daszak P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EcoHealth Alliance, 460 West 34th street, New York, NY 10001, USA</t>
-  </si>
-  <si>
-    <t>MK995302, MK995301, MK995300, MK995299, MK995298, MK995297, MK995296, MK995295, MK995294, MK995293, MK995292, MK995291, MK995290, MK995289, MK995288, MK995287, MK995286, MK995285, MK995284</t>
-  </si>
-  <si>
     <t>NCBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Center for Biotechnology Information, NIH, Bethesda, MD 20894, USA</t>
-  </si>
-  <si>
-    <t>NC_002728</t>
   </si>
   <si>
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
@@ -664,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,7 +676,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -712,18 +688,15 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>21529409</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -735,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -743,313 +716,253 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2004</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>21122240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2024</v>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>21122240</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>34422315</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15">
-        <v>34422315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E75C1-8481-D945-850F-056AD191F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE221E-0FDC-1445-A0AF-A72E01A886E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="21960" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>The genetic diversity of nipah virus across spatial scales</t>
   </si>
   <si>
-    <t>Azuero O., Cappelle J., Duong V., Gurley E., Heng O., Hoem T., Hul V., Islam A., Lefrancq N., Lemey P., Mckee C., Nikolay B., Ou T., Rahman M., Salje H., Williams D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology Unit, Institut Pasteur du Cambodge, 5, Bld Monivong, Phnom Penh, Phnom Penh, Phnom Penh 120210, Cambodia, Unpublished</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Characterization of nipah virus from naturally infected pteropus vampyrus bats, malaysia</t>
   </si>
   <si>
-    <t>Chang L., Daszak P., Epstein J., Field H., Hassan L., Hassan S., Henipavirus ecology research G., Mamat Z., Mohamed M., Naim M., Olival K., Rahman S., Saad N., Shohaimi S., Suri A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chang L.Y., Medical Microbiology, University Malaya, Faculty of Medicine, 50603, MALAYSIA, Emerg. Infect. Dis. 16 (12), 1990-1993 (2010)</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Detection of different strains of nipah virus through ecologically targeted surveillance of pteropid bats, cambodia</t>
   </si>
   <si>
-    <t>Buchy P., Cappelle J., Duong V., Hul V.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology, Institut Pasteur in Cambodia, 5, Monivong Blvd, Phnom Penh 12201, Cambodia, Unpublished</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>KM034753, KM034754, KM034755</t>
   </si>
   <si>
-    <t>Barnes K., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., Wohl S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>First report of nipah virus shed in urine by fruit bats (pteropus medius), sri lanka</t>
   </si>
   <si>
-    <t>Bas D., Becker-ziaja B., Brinkmann A., Handunnetti S., Jeevatharan H., Kohl C., Muzeniek T., Nitsche A., Oeruc M., Perera I., Perera T., Premawansa G., Premawansa S., Schwarz F., Siriwardana S., Weerasena J., Yapa W.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Biological Threats and Special Pathogens, Robert Koch-Institute, Seestrasse 10, Berlin 13353, Germany, Unpublished</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Nipah virus in the fruit bat pteropus vampyrus in sumatera, indonesia</t>
   </si>
   <si>
-    <t>Abdul adjid R., Barr J., Daniels P., Field H., Ratnawati A., Saepulloh M., Sendow I., Taylor T.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Agriculture, Fisheries &amp; Forestry, Queensland Centre for Emerging Infectious Diseases, Biosecurity Queensland, Block 10, 39 Kessels Road, Coopers Plains, QLD 4108, Australia, Unpublished</t>
   </si>
   <si>
@@ -170,9 +152,6 @@
     <t>Genetic characterisation of a nipah virus isolated from a pteropus vampyrus in malaysia</t>
   </si>
   <si>
-    <t>Chang L., Daszak P., Epstein J., Humes F., Latiffah K., Maizan M., Sharifah S., Sharina M., Siti suri A., Sohayati A., Syamsiah A., Zaini C.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> School of Medicine and Health Sciences, Monash University, Sunway Campus, Jalan Persiaran Lagoon Selatan, Kuala Lumpur, Selangor 46150, Malaysia, Unpublished</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>Genetic characterization of nipah virus in pteropus lylei, thailand</t>
   </si>
   <si>
-    <t>Boongird K., Hemachudha T., Ngamprasertwong T., Phumesin P., Ratanasetyuth N., Supavonwong P., Wacharapluesadee S., Wanghongsa S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medicine, Chulalongkorn University Hospital, Rama 4, Bangkok 10330, Thailand, Unpublished</t>
   </si>
   <si>
@@ -197,9 +173,6 @@
     <t>Inference of nipah virus evolution, 1999-2015</t>
   </si>
   <si>
-    <t>Amman B., Doan S., Flora M., Gurley E., Klena J., Ladner J., Lo M., Montgomery J., Nichol S., Rahman M., Satter S., Sazzad H., Spiropoulou C., Sultana S., Whitmer S., Zufan S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Viral Special Pathogens, Centers for Disease Control and Prevention, 1600 Clifton Rd, Atlanta, GA 30324, USA, Virus Evol 7 (1), veaa062 (2021)</t>
   </si>
   <si>
@@ -212,9 +185,6 @@
     <t>Nipah virus transmission in bangladesh</t>
   </si>
   <si>
-    <t>Hossain M., Klena J., Miah M., Montgomery J., Rahman D., Rahman M., Rahman S., Satter S., Shirin T.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> One Health Laboratory, Icddr, B, 68, Shaheed Tajuddin Ahmed Sharani, Dhaka 1212, Bangladesh,  One Health Laboratory, icddr, b, 68, Shaheed Tajuddin Ahmed sharani, Dhaka 1212, Bangladesh, Unpublished</t>
   </si>
   <si>
@@ -224,9 +194,6 @@
     <t>Survey for nipah virus infection among bats in thailand</t>
   </si>
   <si>
-    <t>Boongird K., Chanhome L., Hemachudha T., Ksiazek T., Lumlertdacha B., Rollin P., Rupprecht C., Stockton P., Wacharapluesadee S., Wanghongsa S.</t>
-  </si>
-  <si>
     <t>2005, 2009</t>
   </si>
   <si>
@@ -246,6 +213,39 @@
   </si>
   <si>
     <t>MH396625, MH423323, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
+  </si>
+  <si>
+    <t>Azuero O., Ou T., Lefrancq N., Nikolay B., Mckee C., Cappelle J., Hul V., Hoem T., Lemey P., Rahman M., Islam A., Gurley E., Hul V., Hoem T., Heng O., Williams D., Cappelle J., Salje H., Duong V.</t>
+  </si>
+  <si>
+    <t>Chang L., Rahman S., Hassan S., Olival K., Mohamed M., Hassan L., Saad N., Shohaimi S., Mamat Z., Naim M., Epstein J., Suri A., Field H., Daszak P., Henipavirus ecology research G.</t>
+  </si>
+  <si>
+    <t>Duong V., Cappelle J., Hul V., Buchy P.</t>
+  </si>
+  <si>
+    <t>Honko A., Johnson J., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Sword J., Honko A.</t>
+  </si>
+  <si>
+    <t>Kohl C., Siriwardana S., Muzeniek T., Perera T., Bas D., Oeruc M., Brinkmann A., Becker-ziaja B., Schwarz F., Jeevatharan H., Weerasena J., Handunnetti S., Perera I., Premawansa G., Premawansa S., Yapa W., Nitsche A.</t>
+  </si>
+  <si>
+    <t>Sendow I., Ratnawati A., Taylor T., Abdul adjid R., Saepulloh M., Barr J., Daniels P., Field H.</t>
+  </si>
+  <si>
+    <t>Sharifah S., Sohayati A., Maizan M., Chang L., Sharina M., Syamsiah A., Latiffah K., Siti suri A., Zaini C., Humes F., Daszak P., Epstein J.</t>
+  </si>
+  <si>
+    <t>Wacharapluesadee S., Ngamprasertwong T., Supavonwong P., Phumesin P., Ratanasetyuth N., Boongird K., Wanghongsa S., Supavonwong P., Phumesin P., Ratanasetyuth N., Boongird K., Wanghongsa S., Hemachudha T.</t>
+  </si>
+  <si>
+    <t>Whitmer S., Lo M., Sazzad H., Zufan S., Gurley E., Sultana S., Amman B., Ladner J., Rahman M., Doan S., Satter S., Flora M., Montgomery J., Nichol S., Spiropoulou C., Lo M., Zufan S., Nichol S., Spiropoulou C., Klena J.</t>
+  </si>
+  <si>
+    <t>Rahman M., Miah M., Hossain M., Satter S., Klena J., Shirin T., Montgomery J., Rahman D., Rahman S., Miah M., Rahman S., Rahman D., Hossain M., Satter S., Klena J., Shirin T., Montgomery J., Rahman M.</t>
+  </si>
+  <si>
+    <t>Wacharapluesadee S., Lumlertdacha B., Boongird K., Wanghongsa S., Chanhome L., Rollin P., Stockton P., Rupprecht C., Ksiazek T., Hemachudha T.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -716,42 +716,42 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
       <c r="G5">
         <v>21122240</v>
@@ -759,143 +759,143 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>34422315</v>
@@ -903,66 +903,70 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H15" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+      <sortCondition ref="A1:A15"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE221E-0FDC-1445-A0AF-A72E01A886E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48383C-0D65-0A45-B882-1BC53D1B47AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="21960" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>RefID</t>
   </si>
@@ -71,15 +71,6 @@
     <t>MT125117, MT125116, MT125115, MT125114, MT125113, MT125112</t>
   </si>
   <si>
-    <t>Peng L., Hirsch S., Kocher G., Mehta M., Holbrook M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>PQ463988</t>
-  </si>
-  <si>
     <t>The genetic diversity of nipah virus across spatial scales</t>
   </si>
   <si>
@@ -116,15 +107,6 @@
     <t>KM034753, KM034754, KM034755</t>
   </si>
   <si>
-    <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>KY425646, KY425655</t>
-  </si>
-  <si>
     <t>First report of nipah virus shed in urine by fruit bats (pteropus medius), sri lanka</t>
   </si>
   <si>
@@ -222,9 +204,6 @@
   </si>
   <si>
     <t>Duong V., Cappelle J., Hul V., Buchy P.</t>
-  </si>
-  <si>
-    <t>Honko A., Johnson J., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Sword J., Honko A.</t>
   </si>
   <si>
     <t>Kohl C., Siriwardana S., Muzeniek T., Perera T., Bas D., Oeruc M., Brinkmann A., Becker-ziaja B., Schwarz F., Jeevatharan H., Weerasena J., Handunnetti S., Perera I., Premawansa G., Premawansa S., Yapa W., Nitsche A.</t>
@@ -640,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,295 +655,255 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>21122240</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>21122240</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>34422315</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
-        <v>34422315</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition ref="A1:A15"/>
+  <autoFilter ref="A1:H13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition ref="F1:F13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48383C-0D65-0A45-B882-1BC53D1B47AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805E84F-B906-704A-A7DE-DBD38FD0FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="21960" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
   </si>
   <si>
-    <t>MT125117, MT125116, MT125115, MT125114, MT125113, MT125112</t>
-  </si>
-  <si>
     <t>The genetic diversity of nipah virus across spatial scales</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>2018, 2019</t>
   </si>
   <si>
-    <t>MH396625, MH423323, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
-  </si>
-  <si>
     <t>Azuero O., Ou T., Lefrancq N., Nikolay B., Mckee C., Cappelle J., Hul V., Hoem T., Lemey P., Rahman M., Islam A., Gurley E., Hul V., Hoem T., Heng O., Williams D., Cappelle J., Salje H., Duong V.</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Wacharapluesadee S., Lumlertdacha B., Boongird K., Wanghongsa S., Chanhome L., Rollin P., Stockton P., Rupprecht C., Ksiazek T., Hemachudha T.</t>
+  </si>
+  <si>
+    <t>MT125112, MT125113, MT125114, MT125115, MT125116, MT125117</t>
+  </si>
+  <si>
+    <t>MH396625, MH423323, MH423324, MH523640, MH523641, MH523643, MH523644, MH523645, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,42 +655,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -698,19 +698,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
       <c r="G4">
         <v>21122240</v>
@@ -718,192 +718,192 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>34422315</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>34422315</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition ref="F1:F13"/>
+      <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805E84F-B906-704A-A7DE-DBD38FD0FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E0083-9AFD-C448-A7EF-156076924972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="21960" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -316,6 +316,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,15 +631,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="49.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,14 +656,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -669,11 +679,11 @@
       <c r="E2">
         <v>2020</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -689,11 +699,14 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="6">
+        <v>38682164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -709,14 +722,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>21122240</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -732,11 +745,11 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18</v>
       </c>
@@ -752,12 +765,12 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -773,11 +786,14 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="6">
+        <v>23894501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>22</v>
       </c>
@@ -793,11 +809,11 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>26</v>
       </c>
@@ -813,11 +829,11 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>27</v>
       </c>
@@ -833,14 +849,14 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>34422315</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33</v>
       </c>
@@ -856,11 +872,11 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35</v>
       </c>
@@ -876,11 +892,11 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>37</v>
       </c>
@@ -896,7 +912,7 @@
       <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
